--- a/AAII_Financials/Quarterly/LILM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LILM_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/LILM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LILM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>LILM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,44 +665,46 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
+      <c r="I7" s="2">
+        <v>44012</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
@@ -710,8 +712,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -719,48 +724,51 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+      <c r="E9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -768,28 +776,31 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+      <c r="E10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -797,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,28 +824,29 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>63400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>28600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>65100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+      <c r="I12" s="3">
+        <v>28700</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -839,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,37 +886,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+        <v>-35000</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,28 +963,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2800</v>
+        <v>308900</v>
       </c>
       <c r="E17" s="3">
-        <v>4100</v>
+        <v>107600</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
+        <v>24500</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>66600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>43500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -965,8 +993,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,19 +1005,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-4100</v>
+        <v>-104800</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>-20300</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-66300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-43400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1041,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,19 +1051,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>27700</v>
+        <v>-5500</v>
       </c>
       <c r="F20" s="3">
-        <v>-34600</v>
+        <v>44800</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>-15700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1900</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1036,8 +1071,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1045,19 +1083,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>23600</v>
+        <v>-107200</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>-79600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>-39700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1065,57 +1103,63 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>24500</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>68400</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>3600</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-311400</v>
       </c>
       <c r="E23" s="3">
-        <v>23600</v>
+        <v>-114500</v>
       </c>
       <c r="F23" s="3">
-        <v>-34900</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-150400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-45100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1123,16 +1167,19 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1146,14 +1193,17 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,28 +1231,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-312000</v>
       </c>
       <c r="E26" s="3">
-        <v>23600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-34900</v>
+        <v>-114700</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>-150500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>-45100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1210,28 +1263,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-312000</v>
       </c>
       <c r="E27" s="3">
-        <v>23600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-34900</v>
+        <v>-114700</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>-150500</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>-45100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1295,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1423,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1364,19 +1435,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-27700</v>
+        <v>5500</v>
       </c>
       <c r="F32" s="3">
-        <v>34600</v>
+        <v>-44800</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>15700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1900</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1384,28 +1455,31 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-312000</v>
       </c>
       <c r="E33" s="3">
-        <v>23600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-34900</v>
+        <v>-114700</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>-150500</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>-45100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1487,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,28 +1519,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-312000</v>
       </c>
       <c r="E35" s="3">
-        <v>23600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-34900</v>
+        <v>-114700</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>-150500</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>-45100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1471,33 +1551,36 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
+      <c r="I38" s="2">
+        <v>44012</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
@@ -1505,8 +1588,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,25 +1618,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>300</v>
+        <v>134800</v>
       </c>
       <c r="E41" s="3">
+        <v>65500</v>
+      </c>
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
-        <v>2000</v>
-      </c>
       <c r="G41" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>108100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>10000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1560,48 +1648,54 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>227900</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>55200</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1618,8 +1712,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,25 +1744,28 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>23900</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>8600</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>6500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1676,22 +1776,25 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>800</v>
+        <v>386600</v>
       </c>
       <c r="E46" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2500</v>
+        <v>75800</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G46" s="3">
-        <v>9700</v>
+        <v>164600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1705,22 +1808,25 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>379700</v>
+        <v>19500</v>
       </c>
       <c r="E47" s="3">
-        <v>379600</v>
+        <v>405200</v>
       </c>
       <c r="F47" s="3">
-        <v>379600</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>394000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1734,66 +1840,75 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>31800</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>1174300</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>1148200</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>1543300</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>31600</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>772100</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>774000</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>780600</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>10500</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,25 +1968,28 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>6700</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>10800</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,25 +2032,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>380500</v>
+        <v>447800</v>
       </c>
       <c r="E54" s="3">
-        <v>381100</v>
+        <v>156200</v>
       </c>
       <c r="F54" s="3">
-        <v>382100</v>
+        <v>39400</v>
       </c>
       <c r="G54" s="3">
-        <v>10200</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>231300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>39400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1937,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,22 +2094,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>36700</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
+        <v>21600</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>11500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1992,22 +2124,25 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>498600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2021,25 +2156,28 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5000</v>
+        <v>39900</v>
       </c>
       <c r="E59" s="3">
-        <v>2900</v>
+        <v>79600</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>63000</v>
       </c>
       <c r="G59" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>68600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>49200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2050,22 +2188,25 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5300</v>
+        <v>78600</v>
       </c>
       <c r="E60" s="3">
-        <v>3200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
+        <v>42200</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G60" s="3">
-        <v>10200</v>
+        <v>121700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2079,22 +2220,25 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2108,22 +2252,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>44800</v>
+        <v>3400</v>
       </c>
       <c r="E62" s="3">
-        <v>47200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>74800</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3">
+        <v>400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,22 +2380,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50200</v>
+        <v>92300</v>
       </c>
       <c r="E66" s="3">
-        <v>50400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>75000</v>
+        <v>53100</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G66" s="3">
-        <v>10200</v>
+        <v>132000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2253,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,22 +2554,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11800</v>
+        <v>-744300</v>
       </c>
       <c r="E72" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-35000</v>
+        <v>-432400</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G72" s="3">
-        <v>-100</v>
+        <v>-317700</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,22 +2682,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>330300</v>
+        <v>355500</v>
       </c>
       <c r="E76" s="3">
-        <v>330700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>307100</v>
+        <v>63700</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>59900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,33 +2746,36 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
+      <c r="I80" s="2">
+        <v>44012</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
@@ -2590,28 +2783,31 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-312000</v>
       </c>
       <c r="E81" s="3">
-        <v>23600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-34900</v>
+        <v>-114700</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>-150500</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>-45100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2815,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +2831,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+        <v>3100</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>1900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,28 +3021,31 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-700</v>
+        <v>-145500</v>
       </c>
       <c r="E89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="F89" s="3">
-        <v>27100</v>
+        <v>-77800</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-49200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>-31600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,37 +3069,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-11800</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+        <v>-5900</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+        <v>1900</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-2600</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,37 +3163,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-247200</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+        <v>36100</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+        <v>44700</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-106400</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,28 +3337,31 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3">
-        <v>344800</v>
+      <c r="D100" s="3">
+        <v>462300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>800</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>9600</v>
+        <v>31600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>155100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3122,8 +3369,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3133,51 +3383,57 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-700</v>
+        <v>69700</v>
       </c>
       <c r="E102" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-7600</v>
+        <v>-40900</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>9600</v>
+        <v>27000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>17200</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LILM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LILM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>LILM</t>
   </si>
@@ -724,10 +724,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F8" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="G8" s="3">
         <v>300</v>
@@ -756,10 +756,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F9" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
@@ -831,22 +831,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>89000</v>
+        <v>85600</v>
       </c>
       <c r="E12" s="3">
-        <v>63400</v>
+        <v>61000</v>
       </c>
       <c r="F12" s="3">
-        <v>28600</v>
+        <v>27500</v>
       </c>
       <c r="G12" s="3">
-        <v>65100</v>
+        <v>62500</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I12" s="3">
-        <v>28700</v>
+        <v>27600</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>-35000</v>
+        <v>-33600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -970,22 +970,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>308900</v>
+        <v>296900</v>
       </c>
       <c r="E17" s="3">
-        <v>107600</v>
+        <v>103400</v>
       </c>
       <c r="F17" s="3">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="G17" s="3">
-        <v>66600</v>
+        <v>64000</v>
       </c>
       <c r="H17" s="3">
         <v>-100</v>
       </c>
       <c r="I17" s="3">
-        <v>43500</v>
+        <v>41800</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1005,19 +1005,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-104800</v>
+        <v>-100700</v>
       </c>
       <c r="F18" s="3">
-        <v>-20300</v>
+        <v>-19500</v>
       </c>
       <c r="G18" s="3">
-        <v>-66300</v>
+        <v>-63700</v>
       </c>
       <c r="H18" s="3">
         <v>200</v>
       </c>
       <c r="I18" s="3">
-        <v>-43400</v>
+        <v>-41700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1051,19 +1051,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="F20" s="3">
-        <v>44800</v>
+        <v>43100</v>
       </c>
       <c r="G20" s="3">
-        <v>-15700</v>
+        <v>-15100</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1083,19 +1083,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-107200</v>
+        <v>-103000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>-79600</v>
+        <v>-76400</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>-39700</v>
+        <v>-38100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1115,19 +1115,19 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="3">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="G22" s="3">
-        <v>68400</v>
+        <v>65700</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1144,22 +1144,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-311400</v>
+        <v>-299300</v>
       </c>
       <c r="E23" s="3">
-        <v>-114500</v>
+        <v>-110000</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-150400</v>
+        <v>-144600</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-45100</v>
+        <v>-43300</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1181,14 +1181,14 @@
       <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1240,22 +1240,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-312000</v>
+        <v>-299800</v>
       </c>
       <c r="E26" s="3">
-        <v>-114700</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>-110600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>23500</v>
       </c>
       <c r="G26" s="3">
-        <v>-150500</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-179400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-45100</v>
+        <v>-43300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1272,22 +1272,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-312000</v>
+        <v>-299800</v>
       </c>
       <c r="E27" s="3">
-        <v>-114700</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-110600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>23500</v>
       </c>
       <c r="G27" s="3">
-        <v>-150500</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-179400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-45100</v>
+        <v>-43300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1435,19 +1435,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="F32" s="3">
-        <v>-44800</v>
+        <v>-43100</v>
       </c>
       <c r="G32" s="3">
-        <v>15700</v>
+        <v>15100</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1464,22 +1464,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-312000</v>
+        <v>-299800</v>
       </c>
       <c r="E33" s="3">
-        <v>-114700</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-110600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>23500</v>
       </c>
       <c r="G33" s="3">
-        <v>-150500</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-179400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-45100</v>
+        <v>-43300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1528,22 +1528,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-312000</v>
+        <v>-299800</v>
       </c>
       <c r="E35" s="3">
-        <v>-114700</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-110600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>23500</v>
       </c>
       <c r="G35" s="3">
-        <v>-150500</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-179400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-45100</v>
+        <v>-43300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1625,19 +1625,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>134800</v>
+        <v>129500</v>
       </c>
       <c r="E41" s="3">
-        <v>65500</v>
+        <v>62900</v>
       </c>
       <c r="F41" s="3">
         <v>1000</v>
       </c>
       <c r="G41" s="3">
-        <v>108100</v>
+        <v>103900</v>
       </c>
       <c r="H41" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1657,19 +1657,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>227900</v>
+        <v>219100</v>
       </c>
       <c r="E42" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F42" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G42" s="3">
-        <v>55200</v>
+        <v>53100</v>
       </c>
       <c r="H42" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1753,16 +1753,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23900</v>
+        <v>22900</v>
       </c>
       <c r="E45" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
       </c>
       <c r="G45" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1785,16 +1785,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>386600</v>
+        <v>371500</v>
       </c>
       <c r="E46" s="3">
-        <v>75800</v>
+        <v>72800</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G46" s="3">
-        <v>164600</v>
+        <v>158200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1817,16 +1817,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="E47" s="3">
-        <v>405200</v>
+        <v>389400</v>
       </c>
       <c r="F47" s="3">
-        <v>394000</v>
+        <v>378700</v>
       </c>
       <c r="G47" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1849,19 +1849,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31800</v>
+        <v>30500</v>
       </c>
       <c r="E48" s="3">
-        <v>1174300</v>
+        <v>1128500</v>
       </c>
       <c r="F48" s="3">
-        <v>1148200</v>
+        <v>1103400</v>
       </c>
       <c r="G48" s="3">
-        <v>1543300</v>
+        <v>1483100</v>
       </c>
       <c r="H48" s="3">
-        <v>31600</v>
+        <v>30400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>1400</v>
       </c>
       <c r="E49" s="3">
-        <v>772100</v>
+        <v>742000</v>
       </c>
       <c r="F49" s="3">
-        <v>774000</v>
+        <v>743800</v>
       </c>
       <c r="G49" s="3">
-        <v>780600</v>
+        <v>750200</v>
       </c>
       <c r="H49" s="3">
-        <v>10500</v>
+        <v>10100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1977,19 +1977,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="E52" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="F52" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
       </c>
       <c r="H52" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2041,19 +2041,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>447800</v>
+        <v>430300</v>
       </c>
       <c r="E54" s="3">
-        <v>156200</v>
+        <v>150100</v>
       </c>
       <c r="F54" s="3">
-        <v>39400</v>
+        <v>37900</v>
       </c>
       <c r="G54" s="3">
-        <v>231300</v>
+        <v>222300</v>
       </c>
       <c r="H54" s="3">
-        <v>39400</v>
+        <v>37900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2101,16 +2101,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>36700</v>
+        <v>35200</v>
       </c>
       <c r="E57" s="3">
-        <v>21600</v>
+        <v>20700</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G57" s="3">
-        <v>11500</v>
+        <v>11100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2136,13 +2136,13 @@
         <v>2000</v>
       </c>
       <c r="E58" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G58" s="3">
-        <v>498600</v>
+        <v>479200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2165,19 +2165,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>39900</v>
+        <v>38400</v>
       </c>
       <c r="E59" s="3">
-        <v>79600</v>
+        <v>76500</v>
       </c>
       <c r="F59" s="3">
-        <v>63000</v>
+        <v>60600</v>
       </c>
       <c r="G59" s="3">
-        <v>68600</v>
+        <v>65900</v>
       </c>
       <c r="H59" s="3">
-        <v>49200</v>
+        <v>47300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2197,16 +2197,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>78600</v>
+        <v>75600</v>
       </c>
       <c r="E60" s="3">
-        <v>42200</v>
+        <v>40500</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G60" s="3">
-        <v>121700</v>
+        <v>117000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2229,16 +2229,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="E61" s="3">
-        <v>10500</v>
+        <v>10100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2261,7 +2261,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
@@ -2389,16 +2389,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>92300</v>
+        <v>88700</v>
       </c>
       <c r="E66" s="3">
-        <v>53100</v>
+        <v>51100</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G66" s="3">
-        <v>132000</v>
+        <v>126900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2563,16 +2563,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-744300</v>
+        <v>-715300</v>
       </c>
       <c r="E72" s="3">
-        <v>-432400</v>
+        <v>-415500</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G72" s="3">
-        <v>-317700</v>
+        <v>-305300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2691,16 +2691,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>355500</v>
+        <v>341600</v>
       </c>
       <c r="E76" s="3">
-        <v>63700</v>
+        <v>61200</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G76" s="3">
-        <v>59900</v>
+        <v>57600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2792,22 +2792,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-312000</v>
+        <v>-299800</v>
       </c>
       <c r="E81" s="3">
-        <v>-114700</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-110600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>23500</v>
       </c>
       <c r="G81" s="3">
-        <v>-150500</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-179400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-45100</v>
+        <v>-43300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2838,22 +2838,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E83" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I83" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3030,22 +3030,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-145500</v>
+        <v>-139800</v>
       </c>
       <c r="E89" s="3">
-        <v>-77800</v>
+        <v>-74700</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>-49200</v>
+        <v>-47300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I89" s="3">
-        <v>-31600</v>
+        <v>-30400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3076,10 +3076,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11800</v>
+        <v>-11400</v>
       </c>
       <c r="E91" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -3091,7 +3091,7 @@
         <v>3</v>
       </c>
       <c r="I91" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3172,22 +3172,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-247200</v>
+        <v>-237600</v>
       </c>
       <c r="E94" s="3">
-        <v>36100</v>
+        <v>34700</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>44700</v>
+        <v>42900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I94" s="3">
-        <v>-106400</v>
+        <v>-102200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3346,7 +3346,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>462300</v>
+        <v>444300</v>
       </c>
       <c r="E100" s="3">
         <v>800</v>
@@ -3355,13 +3355,13 @@
         <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>31600</v>
+        <v>30400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I100" s="3">
-        <v>155100</v>
+        <v>149100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3410,22 +3410,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>69700</v>
+        <v>66900</v>
       </c>
       <c r="E102" s="3">
-        <v>-40900</v>
+        <v>-39300</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I102" s="3">
-        <v>17200</v>
+        <v>16500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/LILM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LILM_QTR_FIN.xlsx
@@ -724,10 +724,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F8" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G8" s="3">
         <v>300</v>
@@ -759,7 +759,7 @@
         <v>2800</v>
       </c>
       <c r="F9" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
@@ -831,22 +831,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>85600</v>
+        <v>87600</v>
       </c>
       <c r="E12" s="3">
-        <v>61000</v>
+        <v>62400</v>
       </c>
       <c r="F12" s="3">
-        <v>27500</v>
+        <v>28200</v>
       </c>
       <c r="G12" s="3">
-        <v>62500</v>
+        <v>64000</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I12" s="3">
-        <v>27600</v>
+        <v>28200</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>-33600</v>
+        <v>-34400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -970,22 +970,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>296900</v>
+        <v>303800</v>
       </c>
       <c r="E17" s="3">
-        <v>103400</v>
+        <v>105800</v>
       </c>
       <c r="F17" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="G17" s="3">
-        <v>64000</v>
+        <v>65500</v>
       </c>
       <c r="H17" s="3">
         <v>-100</v>
       </c>
       <c r="I17" s="3">
-        <v>41800</v>
+        <v>42800</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1005,19 +1005,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-100700</v>
+        <v>-103100</v>
       </c>
       <c r="F18" s="3">
-        <v>-19500</v>
+        <v>-20000</v>
       </c>
       <c r="G18" s="3">
-        <v>-63700</v>
+        <v>-65200</v>
       </c>
       <c r="H18" s="3">
         <v>200</v>
       </c>
       <c r="I18" s="3">
-        <v>-41700</v>
+        <v>-42700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1051,19 +1051,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="F20" s="3">
-        <v>43100</v>
+        <v>44100</v>
       </c>
       <c r="G20" s="3">
-        <v>-15100</v>
+        <v>-15500</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1083,19 +1083,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-103000</v>
+        <v>-105400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>-76400</v>
+        <v>-78200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>-38100</v>
+        <v>-39000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1115,19 +1115,19 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F22" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="G22" s="3">
-        <v>65700</v>
+        <v>67300</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1144,22 +1144,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-299300</v>
+        <v>-306300</v>
       </c>
       <c r="E23" s="3">
-        <v>-110000</v>
+        <v>-112600</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-144600</v>
+        <v>-148000</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-43300</v>
+        <v>-44300</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1240,22 +1240,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-299800</v>
+        <v>-306800</v>
       </c>
       <c r="E26" s="3">
-        <v>-110600</v>
+        <v>-113200</v>
       </c>
       <c r="F26" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="G26" s="3">
-        <v>-179400</v>
+        <v>-183600</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-43300</v>
+        <v>-44400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1272,22 +1272,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-299800</v>
+        <v>-306800</v>
       </c>
       <c r="E27" s="3">
-        <v>-110600</v>
+        <v>-113200</v>
       </c>
       <c r="F27" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="G27" s="3">
-        <v>-179400</v>
+        <v>-183600</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-43300</v>
+        <v>-44400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1435,19 +1435,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F32" s="3">
-        <v>-43100</v>
+        <v>-44100</v>
       </c>
       <c r="G32" s="3">
-        <v>15100</v>
+        <v>15500</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1464,22 +1464,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-299800</v>
+        <v>-306800</v>
       </c>
       <c r="E33" s="3">
-        <v>-110600</v>
+        <v>-113200</v>
       </c>
       <c r="F33" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="G33" s="3">
-        <v>-179400</v>
+        <v>-183600</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-43300</v>
+        <v>-44400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1528,22 +1528,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-299800</v>
+        <v>-306800</v>
       </c>
       <c r="E35" s="3">
-        <v>-110600</v>
+        <v>-113200</v>
       </c>
       <c r="F35" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="G35" s="3">
-        <v>-179400</v>
+        <v>-183600</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-43300</v>
+        <v>-44400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1625,19 +1625,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>129500</v>
+        <v>132600</v>
       </c>
       <c r="E41" s="3">
-        <v>62900</v>
+        <v>64400</v>
       </c>
       <c r="F41" s="3">
         <v>1000</v>
       </c>
       <c r="G41" s="3">
-        <v>103900</v>
+        <v>106300</v>
       </c>
       <c r="H41" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1657,19 +1657,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>219100</v>
+        <v>224200</v>
       </c>
       <c r="E42" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F42" s="3">
         <v>1500</v>
       </c>
       <c r="G42" s="3">
-        <v>53100</v>
+        <v>54300</v>
       </c>
       <c r="H42" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1753,16 +1753,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22900</v>
+        <v>23500</v>
       </c>
       <c r="E45" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
       </c>
       <c r="G45" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1785,16 +1785,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>371500</v>
+        <v>380200</v>
       </c>
       <c r="E46" s="3">
-        <v>72800</v>
+        <v>74500</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G46" s="3">
-        <v>158200</v>
+        <v>161900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1817,16 +1817,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18800</v>
+        <v>19200</v>
       </c>
       <c r="E47" s="3">
-        <v>389400</v>
+        <v>398500</v>
       </c>
       <c r="F47" s="3">
-        <v>378700</v>
+        <v>387500</v>
       </c>
       <c r="G47" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1849,19 +1849,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30500</v>
+        <v>31200</v>
       </c>
       <c r="E48" s="3">
-        <v>1128500</v>
+        <v>1155000</v>
       </c>
       <c r="F48" s="3">
-        <v>1103400</v>
+        <v>1129300</v>
       </c>
       <c r="G48" s="3">
-        <v>1483100</v>
+        <v>1517900</v>
       </c>
       <c r="H48" s="3">
-        <v>30400</v>
+        <v>31100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>1400</v>
       </c>
       <c r="E49" s="3">
-        <v>742000</v>
+        <v>759400</v>
       </c>
       <c r="F49" s="3">
-        <v>743800</v>
+        <v>761300</v>
       </c>
       <c r="G49" s="3">
-        <v>750200</v>
+        <v>767800</v>
       </c>
       <c r="H49" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1977,19 +1977,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="E52" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="F52" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
       </c>
       <c r="H52" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2041,19 +2041,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>430300</v>
+        <v>440400</v>
       </c>
       <c r="E54" s="3">
-        <v>150100</v>
+        <v>153600</v>
       </c>
       <c r="F54" s="3">
-        <v>37900</v>
+        <v>38700</v>
       </c>
       <c r="G54" s="3">
-        <v>222300</v>
+        <v>227500</v>
       </c>
       <c r="H54" s="3">
-        <v>37900</v>
+        <v>38700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2101,16 +2101,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35200</v>
+        <v>36100</v>
       </c>
       <c r="E57" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G57" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2136,13 +2136,13 @@
         <v>2000</v>
       </c>
       <c r="E58" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G58" s="3">
-        <v>479200</v>
+        <v>490400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2165,19 +2165,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>38400</v>
+        <v>39300</v>
       </c>
       <c r="E59" s="3">
-        <v>76500</v>
+        <v>78300</v>
       </c>
       <c r="F59" s="3">
-        <v>60600</v>
+        <v>62000</v>
       </c>
       <c r="G59" s="3">
-        <v>65900</v>
+        <v>67400</v>
       </c>
       <c r="H59" s="3">
-        <v>47300</v>
+        <v>48400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2197,16 +2197,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>75600</v>
+        <v>77300</v>
       </c>
       <c r="E60" s="3">
-        <v>40500</v>
+        <v>41500</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G60" s="3">
-        <v>117000</v>
+        <v>119700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2229,16 +2229,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="E61" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2261,7 +2261,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
@@ -2389,16 +2389,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>88700</v>
+        <v>90800</v>
       </c>
       <c r="E66" s="3">
-        <v>51100</v>
+        <v>52300</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G66" s="3">
-        <v>126900</v>
+        <v>129900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2563,16 +2563,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-715300</v>
+        <v>-732100</v>
       </c>
       <c r="E72" s="3">
-        <v>-415500</v>
+        <v>-425200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G72" s="3">
-        <v>-305300</v>
+        <v>-312500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2691,16 +2691,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>341600</v>
+        <v>349600</v>
       </c>
       <c r="E76" s="3">
-        <v>61200</v>
+        <v>62600</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G76" s="3">
-        <v>57600</v>
+        <v>58900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2792,22 +2792,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-299800</v>
+        <v>-306800</v>
       </c>
       <c r="E81" s="3">
-        <v>-110600</v>
+        <v>-113200</v>
       </c>
       <c r="F81" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="G81" s="3">
-        <v>-179400</v>
+        <v>-183600</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-43300</v>
+        <v>-44400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2838,7 +2838,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E83" s="3">
         <v>3000</v>
@@ -3030,22 +3030,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-139800</v>
+        <v>-143100</v>
       </c>
       <c r="E89" s="3">
-        <v>-74700</v>
+        <v>-76500</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>-47300</v>
+        <v>-48400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I89" s="3">
-        <v>-30400</v>
+        <v>-31100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3076,10 +3076,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="E91" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -3172,22 +3172,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-237600</v>
+        <v>-243100</v>
       </c>
       <c r="E94" s="3">
-        <v>34700</v>
+        <v>35500</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>42900</v>
+        <v>43900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I94" s="3">
-        <v>-102200</v>
+        <v>-104600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3346,7 +3346,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>444300</v>
+        <v>454700</v>
       </c>
       <c r="E100" s="3">
         <v>800</v>
@@ -3355,13 +3355,13 @@
         <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>30400</v>
+        <v>31100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I100" s="3">
-        <v>149100</v>
+        <v>152600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3410,22 +3410,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>66900</v>
+        <v>68500</v>
       </c>
       <c r="E102" s="3">
-        <v>-39300</v>
+        <v>-40200</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>26000</v>
+        <v>26600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I102" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/LILM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LILM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>LILM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,56 +667,64 @@
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -724,95 +732,113 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F9" s="3">
-        <v>4200</v>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,40 +851,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>87600</v>
+        <v>99700</v>
       </c>
       <c r="E12" s="3">
-        <v>62400</v>
+        <v>89400</v>
       </c>
       <c r="F12" s="3">
+        <v>92400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>65800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>67500</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
         <v>28200</v>
       </c>
-      <c r="G12" s="3">
-        <v>64000</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3">
-        <v>28200</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,28 +923,34 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-34400</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-36300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -918,11 +958,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,40 +1016,48 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>303800</v>
+        <v>155300</v>
       </c>
       <c r="E17" s="3">
-        <v>105800</v>
+        <v>151900</v>
       </c>
       <c r="F17" s="3">
-        <v>24100</v>
+        <v>320500</v>
       </c>
       <c r="G17" s="3">
-        <v>65500</v>
+        <v>111600</v>
       </c>
       <c r="H17" s="3">
+        <v>25400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>69100</v>
+      </c>
+      <c r="J17" s="3">
         <v>-100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>42800</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1005,31 +1065,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-103100</v>
+        <v>-151900</v>
       </c>
       <c r="F18" s="3">
-        <v>-20000</v>
+        <v>-320500</v>
       </c>
       <c r="G18" s="3">
-        <v>-65200</v>
+        <v>-108700</v>
       </c>
       <c r="H18" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-68800</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-42700</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,8 +1108,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1051,31 +1119,37 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>-5400</v>
+        <v>18400</v>
       </c>
       <c r="F20" s="3">
-        <v>44100</v>
+        <v>-2300</v>
       </c>
       <c r="G20" s="3">
-        <v>-15500</v>
+        <v>-5700</v>
       </c>
       <c r="H20" s="3">
+        <v>46500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1083,110 +1157,128 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-105400</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>-129400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-319100</v>
       </c>
       <c r="G21" s="3">
-        <v>-78200</v>
+        <v>-111200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="3">
+        <v>-82500</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-39000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>24100</v>
-      </c>
       <c r="G22" s="3">
-        <v>67300</v>
+        <v>4300</v>
       </c>
       <c r="H22" s="3">
+        <v>25400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>71000</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3500</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-306300</v>
+        <v>-139200</v>
       </c>
       <c r="E23" s="3">
-        <v>-112600</v>
+        <v>-133700</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-323100</v>
       </c>
       <c r="G23" s="3">
-        <v>-148000</v>
+        <v>-118800</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>-156100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-44300</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1199,11 +1291,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-306800</v>
+        <v>-139300</v>
       </c>
       <c r="E26" s="3">
-        <v>-113200</v>
+        <v>-133200</v>
       </c>
       <c r="F26" s="3">
-        <v>24100</v>
+        <v>-323700</v>
       </c>
       <c r="G26" s="3">
-        <v>-183600</v>
+        <v>-119400</v>
       </c>
       <c r="H26" s="3">
+        <v>25400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-193700</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-44400</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-306800</v>
+        <v>-139300</v>
       </c>
       <c r="E27" s="3">
-        <v>-113200</v>
+        <v>-133200</v>
       </c>
       <c r="F27" s="3">
-        <v>24100</v>
+        <v>-323700</v>
       </c>
       <c r="G27" s="3">
-        <v>-183600</v>
+        <v>-119400</v>
       </c>
       <c r="H27" s="3">
+        <v>25400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-193700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-44400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,8 +1560,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1435,63 +1575,75 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>5400</v>
+        <v>-18400</v>
       </c>
       <c r="F32" s="3">
-        <v>-44100</v>
+        <v>2300</v>
       </c>
       <c r="G32" s="3">
-        <v>15500</v>
+        <v>5700</v>
       </c>
       <c r="H32" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>16300</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-306800</v>
+        <v>-139300</v>
       </c>
       <c r="E33" s="3">
-        <v>-113200</v>
+        <v>-133200</v>
       </c>
       <c r="F33" s="3">
-        <v>24100</v>
+        <v>-323700</v>
       </c>
       <c r="G33" s="3">
-        <v>-183600</v>
+        <v>-119400</v>
       </c>
       <c r="H33" s="3">
+        <v>25400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-193700</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-44400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-306800</v>
+        <v>-139300</v>
       </c>
       <c r="E35" s="3">
-        <v>-113200</v>
+        <v>-133200</v>
       </c>
       <c r="F35" s="3">
-        <v>24100</v>
+        <v>-323700</v>
       </c>
       <c r="G35" s="3">
-        <v>-183600</v>
+        <v>-119400</v>
       </c>
       <c r="H35" s="3">
+        <v>25400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-193700</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-44400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,25 +1791,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>132600</v>
+        <v>111100</v>
       </c>
       <c r="E41" s="3">
-        <v>64400</v>
+        <v>139800</v>
       </c>
       <c r="F41" s="3">
-        <v>1000</v>
+        <v>67900</v>
       </c>
       <c r="G41" s="3">
-        <v>106300</v>
+        <v>1100</v>
       </c>
       <c r="H41" s="3">
-        <v>9800</v>
+        <v>112200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1651,25 +1825,31 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>224200</v>
+        <v>131800</v>
       </c>
       <c r="E42" s="3">
-        <v>3200</v>
+        <v>236500</v>
       </c>
       <c r="F42" s="3">
-        <v>1500</v>
+        <v>3400</v>
       </c>
       <c r="G42" s="3">
-        <v>54300</v>
+        <v>1600</v>
       </c>
       <c r="H42" s="3">
-        <v>9900</v>
+        <v>57300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1677,28 +1857,34 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1715,8 +1901,14 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,25 +1939,31 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23500</v>
+        <v>34400</v>
       </c>
       <c r="E45" s="3">
-        <v>8500</v>
+        <v>24800</v>
       </c>
       <c r="F45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
-        <v>6400</v>
-      </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1779,25 +1977,31 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>380200</v>
+        <v>277300</v>
       </c>
       <c r="E46" s="3">
-        <v>74500</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3">
-        <v>161900</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>401100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>78600</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3">
+        <v>170800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1811,25 +2015,31 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19200</v>
+        <v>18100</v>
       </c>
       <c r="E47" s="3">
-        <v>398500</v>
+        <v>20300</v>
       </c>
       <c r="F47" s="3">
-        <v>387500</v>
+        <v>454400</v>
       </c>
       <c r="G47" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>445300</v>
+      </c>
+      <c r="H47" s="3">
+        <v>68500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1843,25 +2053,31 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31200</v>
+        <v>34500</v>
       </c>
       <c r="E48" s="3">
-        <v>1155000</v>
+        <v>33000</v>
       </c>
       <c r="F48" s="3">
-        <v>1129300</v>
+        <v>1209500</v>
       </c>
       <c r="G48" s="3">
-        <v>1517900</v>
+        <v>1180200</v>
       </c>
       <c r="H48" s="3">
-        <v>31100</v>
+        <v>1587100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1869,31 +2085,37 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="E49" s="3">
-        <v>759400</v>
+        <v>1500</v>
       </c>
       <c r="F49" s="3">
-        <v>761300</v>
+        <v>822400</v>
       </c>
       <c r="G49" s="3">
-        <v>767800</v>
+        <v>821800</v>
       </c>
       <c r="H49" s="3">
-        <v>10400</v>
+        <v>798900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1901,14 +2123,20 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,25 +2205,31 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8300</v>
+        <v>6700</v>
       </c>
       <c r="E52" s="3">
-        <v>11200</v>
+        <v>8700</v>
       </c>
       <c r="F52" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="G52" s="3">
-        <v>600</v>
+        <v>3800</v>
       </c>
       <c r="H52" s="3">
-        <v>10600</v>
+        <v>500</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2003,8 +2243,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,25 +2281,31 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>440400</v>
+        <v>337700</v>
       </c>
       <c r="E54" s="3">
-        <v>153600</v>
+        <v>464600</v>
       </c>
       <c r="F54" s="3">
-        <v>38700</v>
+        <v>131400</v>
       </c>
       <c r="G54" s="3">
-        <v>227500</v>
+        <v>10200</v>
       </c>
       <c r="H54" s="3">
-        <v>38700</v>
+        <v>209400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2067,8 +2319,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,25 +2355,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>36100</v>
+        <v>39300</v>
       </c>
       <c r="E57" s="3">
-        <v>21200</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3">
-        <v>11300</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>38100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>22400</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3">
+        <v>11900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2127,25 +2389,31 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="E58" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
-        <v>490400</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>2100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
+        <v>108600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2159,25 +2427,31 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>39300</v>
+        <v>28800</v>
       </c>
       <c r="E59" s="3">
-        <v>78300</v>
+        <v>41400</v>
       </c>
       <c r="F59" s="3">
-        <v>62000</v>
+        <v>31500</v>
       </c>
       <c r="G59" s="3">
-        <v>67400</v>
+        <v>14300</v>
       </c>
       <c r="H59" s="3">
-        <v>48400</v>
+        <v>428800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2191,25 +2465,31 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>77300</v>
+        <v>71300</v>
       </c>
       <c r="E60" s="3">
-        <v>41500</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3">
-        <v>119700</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>81600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>43700</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3">
+        <v>126300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2223,8 +2503,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2232,17 +2518,17 @@
         <v>10100</v>
       </c>
       <c r="E61" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F61" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>10300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>9700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2255,26 +2541,32 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3400</v>
+        <v>5900</v>
       </c>
       <c r="E62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2579,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,25 +2693,31 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>90800</v>
+        <v>87300</v>
       </c>
       <c r="E66" s="3">
-        <v>52300</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3">
-        <v>129900</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>95800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>55100</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3">
+        <v>137000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2415,8 +2731,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,25 +2899,31 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-732100</v>
+        <v>-905500</v>
       </c>
       <c r="E72" s="3">
-        <v>-425200</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-312500</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-772300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-448600</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-329600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2589,8 +2937,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,25 +3051,31 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>349600</v>
+        <v>250400</v>
       </c>
       <c r="E76" s="3">
-        <v>62600</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3">
-        <v>58900</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>368900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>66100</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3">
+        <v>62200</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2717,8 +3089,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-306800</v>
+        <v>-139300</v>
       </c>
       <c r="E81" s="3">
-        <v>-113200</v>
+        <v>-133200</v>
       </c>
       <c r="F81" s="3">
-        <v>24100</v>
+        <v>-323700</v>
       </c>
       <c r="G81" s="3">
-        <v>-183600</v>
+        <v>-119400</v>
       </c>
       <c r="H81" s="3">
+        <v>25400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-193700</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-44400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,40 +3228,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3600</v>
+        <v>4900</v>
       </c>
       <c r="E83" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+        <v>4000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>3800</v>
       </c>
       <c r="G83" s="3">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>1800</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-143100</v>
+        <v>-145300</v>
       </c>
       <c r="E89" s="3">
-        <v>-76500</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-132200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-150900</v>
       </c>
       <c r="G89" s="3">
-        <v>-48400</v>
+        <v>-80700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I89" s="3">
+        <v>32600</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-31100</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,40 +3510,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11600</v>
+        <v>-6900</v>
       </c>
       <c r="E91" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+        <v>-2300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-13000</v>
       </c>
       <c r="G91" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-5700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-6400</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,40 +3620,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-243100</v>
+        <v>100000</v>
       </c>
       <c r="E94" s="3">
-        <v>35500</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>104900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-256500</v>
       </c>
       <c r="G94" s="3">
-        <v>43900</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>37400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>2200</v>
       </c>
       <c r="I94" s="3">
+        <v>110400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-104600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,100 +3826,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>454700</v>
+        <v>127700</v>
       </c>
       <c r="E100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>479700</v>
+      </c>
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3">
-        <v>31100</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I100" s="3">
+        <v>32800</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>152600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>68500</v>
+        <v>82300</v>
       </c>
       <c r="E102" s="3">
-        <v>-40200</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>-28800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>72300</v>
       </c>
       <c r="G102" s="3">
-        <v>26600</v>
+        <v>-42400</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I102" s="3">
+        <v>28000</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>16900</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LILM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LILM_QTR_FIN.xlsx
@@ -859,22 +859,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>99700</v>
+        <v>100400</v>
       </c>
       <c r="E12" s="3">
-        <v>89400</v>
+        <v>90000</v>
       </c>
       <c r="F12" s="3">
-        <v>92400</v>
+        <v>93000</v>
       </c>
       <c r="G12" s="3">
-        <v>65800</v>
+        <v>66300</v>
       </c>
       <c r="H12" s="3">
-        <v>29700</v>
+        <v>29900</v>
       </c>
       <c r="I12" s="3">
-        <v>67500</v>
+        <v>68000</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -950,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>-36300</v>
+        <v>-36500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1024,22 +1024,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>155300</v>
+        <v>156300</v>
       </c>
       <c r="E17" s="3">
-        <v>151900</v>
+        <v>152900</v>
       </c>
       <c r="F17" s="3">
-        <v>320500</v>
+        <v>322700</v>
       </c>
       <c r="G17" s="3">
-        <v>111600</v>
+        <v>112400</v>
       </c>
       <c r="H17" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="I17" s="3">
-        <v>69100</v>
+        <v>69600</v>
       </c>
       <c r="J17" s="3">
         <v>-100</v>
@@ -1065,19 +1065,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-151900</v>
+        <v>-152900</v>
       </c>
       <c r="F18" s="3">
-        <v>-320500</v>
+        <v>-322700</v>
       </c>
       <c r="G18" s="3">
-        <v>-108700</v>
+        <v>-109500</v>
       </c>
       <c r="H18" s="3">
-        <v>-21100</v>
+        <v>-21200</v>
       </c>
       <c r="I18" s="3">
-        <v>-68800</v>
+        <v>-69200</v>
       </c>
       <c r="J18" s="3">
         <v>200</v>
@@ -1119,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>18400</v>
+        <v>18500</v>
       </c>
       <c r="F20" s="3">
         <v>-2300</v>
@@ -1128,10 +1128,10 @@
         <v>-5700</v>
       </c>
       <c r="H20" s="3">
-        <v>46500</v>
+        <v>46800</v>
       </c>
       <c r="I20" s="3">
-        <v>-16300</v>
+        <v>-16400</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
@@ -1157,19 +1157,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-129400</v>
+        <v>-130300</v>
       </c>
       <c r="F21" s="3">
-        <v>-319100</v>
+        <v>-321200</v>
       </c>
       <c r="G21" s="3">
-        <v>-111200</v>
+        <v>-111900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>-82500</v>
+        <v>-83100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1201,13 +1201,13 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="H22" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="I22" s="3">
-        <v>71000</v>
+        <v>71500</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1230,22 +1230,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-139200</v>
+        <v>-140100</v>
       </c>
       <c r="E23" s="3">
-        <v>-133700</v>
+        <v>-134600</v>
       </c>
       <c r="F23" s="3">
-        <v>-323100</v>
+        <v>-325300</v>
       </c>
       <c r="G23" s="3">
-        <v>-118800</v>
+        <v>-119600</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-156100</v>
+        <v>-157100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>-500</v>
       </c>
       <c r="F24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
@@ -1344,22 +1344,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-139300</v>
+        <v>-140200</v>
       </c>
       <c r="E26" s="3">
-        <v>-133200</v>
+        <v>-134100</v>
       </c>
       <c r="F26" s="3">
-        <v>-323700</v>
+        <v>-325800</v>
       </c>
       <c r="G26" s="3">
-        <v>-119400</v>
+        <v>-120200</v>
       </c>
       <c r="H26" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="I26" s="3">
-        <v>-193700</v>
+        <v>-195000</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1382,22 +1382,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-139300</v>
+        <v>-140200</v>
       </c>
       <c r="E27" s="3">
-        <v>-133200</v>
+        <v>-134100</v>
       </c>
       <c r="F27" s="3">
-        <v>-323700</v>
+        <v>-325800</v>
       </c>
       <c r="G27" s="3">
-        <v>-119400</v>
+        <v>-120200</v>
       </c>
       <c r="H27" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="I27" s="3">
-        <v>-193700</v>
+        <v>-195000</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1575,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-18400</v>
+        <v>-18500</v>
       </c>
       <c r="F32" s="3">
         <v>2300</v>
@@ -1584,10 +1584,10 @@
         <v>5700</v>
       </c>
       <c r="H32" s="3">
-        <v>-46500</v>
+        <v>-46800</v>
       </c>
       <c r="I32" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -1610,22 +1610,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-139300</v>
+        <v>-140200</v>
       </c>
       <c r="E33" s="3">
-        <v>-133200</v>
+        <v>-134100</v>
       </c>
       <c r="F33" s="3">
-        <v>-323700</v>
+        <v>-325800</v>
       </c>
       <c r="G33" s="3">
-        <v>-119400</v>
+        <v>-120200</v>
       </c>
       <c r="H33" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="I33" s="3">
-        <v>-193700</v>
+        <v>-195000</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -1686,22 +1686,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-139300</v>
+        <v>-140200</v>
       </c>
       <c r="E35" s="3">
-        <v>-133200</v>
+        <v>-134100</v>
       </c>
       <c r="F35" s="3">
-        <v>-323700</v>
+        <v>-325800</v>
       </c>
       <c r="G35" s="3">
-        <v>-119400</v>
+        <v>-120200</v>
       </c>
       <c r="H35" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="I35" s="3">
-        <v>-193700</v>
+        <v>-195000</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -1799,19 +1799,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>111100</v>
+        <v>111800</v>
       </c>
       <c r="E41" s="3">
-        <v>139800</v>
+        <v>140800</v>
       </c>
       <c r="F41" s="3">
-        <v>67900</v>
+        <v>68400</v>
       </c>
       <c r="G41" s="3">
         <v>1100</v>
       </c>
       <c r="H41" s="3">
-        <v>112200</v>
+        <v>112900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1837,10 +1837,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>131800</v>
+        <v>132700</v>
       </c>
       <c r="E42" s="3">
-        <v>236500</v>
+        <v>238100</v>
       </c>
       <c r="F42" s="3">
         <v>3400</v>
@@ -1849,7 +1849,7 @@
         <v>1600</v>
       </c>
       <c r="H42" s="3">
-        <v>57300</v>
+        <v>57700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1951,13 +1951,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34400</v>
+        <v>34600</v>
       </c>
       <c r="E45" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="F45" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
@@ -1989,19 +1989,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>277300</v>
+        <v>279200</v>
       </c>
       <c r="E46" s="3">
-        <v>401100</v>
+        <v>403800</v>
       </c>
       <c r="F46" s="3">
-        <v>78600</v>
+        <v>79100</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H46" s="3">
-        <v>170800</v>
+        <v>171900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="E47" s="3">
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="F47" s="3">
-        <v>454400</v>
+        <v>457400</v>
       </c>
       <c r="G47" s="3">
-        <v>445300</v>
+        <v>448300</v>
       </c>
       <c r="H47" s="3">
-        <v>68500</v>
+        <v>69000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2065,19 +2065,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34500</v>
+        <v>34800</v>
       </c>
       <c r="E48" s="3">
-        <v>33000</v>
+        <v>33200</v>
       </c>
       <c r="F48" s="3">
-        <v>1209500</v>
+        <v>1217600</v>
       </c>
       <c r="G48" s="3">
-        <v>1180200</v>
+        <v>1188100</v>
       </c>
       <c r="H48" s="3">
-        <v>1587100</v>
+        <v>1597700</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2109,13 +2109,13 @@
         <v>1500</v>
       </c>
       <c r="F49" s="3">
-        <v>822400</v>
+        <v>827900</v>
       </c>
       <c r="G49" s="3">
-        <v>821800</v>
+        <v>827300</v>
       </c>
       <c r="H49" s="3">
-        <v>798900</v>
+        <v>804200</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2217,13 +2217,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="E52" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="F52" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="G52" s="3">
         <v>3800</v>
@@ -2293,19 +2293,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>337700</v>
+        <v>339900</v>
       </c>
       <c r="E54" s="3">
-        <v>464600</v>
+        <v>467700</v>
       </c>
       <c r="F54" s="3">
-        <v>131400</v>
+        <v>132300</v>
       </c>
       <c r="G54" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="H54" s="3">
-        <v>209400</v>
+        <v>210800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2363,19 +2363,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>39300</v>
+        <v>39600</v>
       </c>
       <c r="E57" s="3">
-        <v>38100</v>
+        <v>38300</v>
       </c>
       <c r="F57" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H57" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2413,7 +2413,7 @@
         <v>3</v>
       </c>
       <c r="H58" s="3">
-        <v>108600</v>
+        <v>109300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2439,19 +2439,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28800</v>
+        <v>28900</v>
       </c>
       <c r="E59" s="3">
-        <v>41400</v>
+        <v>41700</v>
       </c>
       <c r="F59" s="3">
-        <v>31500</v>
+        <v>31700</v>
       </c>
       <c r="G59" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="H59" s="3">
-        <v>428800</v>
+        <v>431700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2477,19 +2477,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>71300</v>
+        <v>71700</v>
       </c>
       <c r="E60" s="3">
-        <v>81600</v>
+        <v>82100</v>
       </c>
       <c r="F60" s="3">
-        <v>43700</v>
+        <v>44000</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H60" s="3">
-        <v>126300</v>
+        <v>127100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2515,10 +2515,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="E61" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="F61" s="3">
         <v>10900</v>
@@ -2553,10 +2553,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="E62" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F62" s="3">
         <v>500</v>
@@ -2705,19 +2705,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>87300</v>
+        <v>87900</v>
       </c>
       <c r="E66" s="3">
-        <v>95800</v>
+        <v>96400</v>
       </c>
       <c r="F66" s="3">
-        <v>55100</v>
+        <v>55500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H66" s="3">
-        <v>137000</v>
+        <v>137900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2911,19 +2911,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-905500</v>
+        <v>-911500</v>
       </c>
       <c r="E72" s="3">
-        <v>-772300</v>
+        <v>-777400</v>
       </c>
       <c r="F72" s="3">
-        <v>-448600</v>
+        <v>-451600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H72" s="3">
-        <v>-329600</v>
+        <v>-331800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -3063,19 +3063,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>250400</v>
+        <v>252000</v>
       </c>
       <c r="E76" s="3">
-        <v>368900</v>
+        <v>371300</v>
       </c>
       <c r="F76" s="3">
-        <v>66100</v>
+        <v>66500</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H76" s="3">
-        <v>62200</v>
+        <v>62600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3182,22 +3182,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-139300</v>
+        <v>-140200</v>
       </c>
       <c r="E81" s="3">
-        <v>-133200</v>
+        <v>-134100</v>
       </c>
       <c r="F81" s="3">
-        <v>-323700</v>
+        <v>-325800</v>
       </c>
       <c r="G81" s="3">
-        <v>-119400</v>
+        <v>-120200</v>
       </c>
       <c r="H81" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="I81" s="3">
-        <v>-193700</v>
+        <v>-195000</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -3239,7 +3239,7 @@
         <v>4900</v>
       </c>
       <c r="E83" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F83" s="3">
         <v>3800</v>
@@ -3464,22 +3464,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-145300</v>
+        <v>-146300</v>
       </c>
       <c r="E89" s="3">
-        <v>-132200</v>
+        <v>-133000</v>
       </c>
       <c r="F89" s="3">
-        <v>-150900</v>
+        <v>-151900</v>
       </c>
       <c r="G89" s="3">
-        <v>-80700</v>
+        <v>-81200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I89" s="3">
-        <v>32600</v>
+        <v>32800</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3632,22 +3632,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100000</v>
+        <v>100700</v>
       </c>
       <c r="E94" s="3">
-        <v>104900</v>
+        <v>105600</v>
       </c>
       <c r="F94" s="3">
-        <v>-256500</v>
+        <v>-258200</v>
       </c>
       <c r="G94" s="3">
-        <v>37400</v>
+        <v>37700</v>
       </c>
       <c r="H94" s="3">
         <v>2200</v>
       </c>
       <c r="I94" s="3">
-        <v>110400</v>
+        <v>111100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -3838,13 +3838,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>127700</v>
+        <v>128500</v>
       </c>
       <c r="E100" s="3">
         <v>-1600</v>
       </c>
       <c r="F100" s="3">
-        <v>479700</v>
+        <v>482900</v>
       </c>
       <c r="G100" s="3">
         <v>800</v>
@@ -3853,7 +3853,7 @@
         <v>3</v>
       </c>
       <c r="I100" s="3">
-        <v>32800</v>
+        <v>33000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3914,22 +3914,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>82300</v>
+        <v>82900</v>
       </c>
       <c r="E102" s="3">
-        <v>-28800</v>
+        <v>-29000</v>
       </c>
       <c r="F102" s="3">
-        <v>72300</v>
+        <v>72800</v>
       </c>
       <c r="G102" s="3">
-        <v>-42400</v>
+        <v>-42700</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I102" s="3">
-        <v>28000</v>
+        <v>28200</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/LILM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LILM_QTR_FIN.xlsx
@@ -859,13 +859,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100400</v>
+        <v>100500</v>
       </c>
       <c r="E12" s="3">
-        <v>90000</v>
+        <v>90100</v>
       </c>
       <c r="F12" s="3">
-        <v>93000</v>
+        <v>93100</v>
       </c>
       <c r="G12" s="3">
         <v>66300</v>
@@ -950,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>-36500</v>
+        <v>-36600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1024,16 +1024,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>156300</v>
+        <v>156500</v>
       </c>
       <c r="E17" s="3">
-        <v>152900</v>
+        <v>153000</v>
       </c>
       <c r="F17" s="3">
-        <v>322700</v>
+        <v>322900</v>
       </c>
       <c r="G17" s="3">
-        <v>112400</v>
+        <v>112500</v>
       </c>
       <c r="H17" s="3">
         <v>25600</v>
@@ -1065,19 +1065,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-152900</v>
+        <v>-153000</v>
       </c>
       <c r="F18" s="3">
-        <v>-322700</v>
+        <v>-322900</v>
       </c>
       <c r="G18" s="3">
         <v>-109500</v>
       </c>
       <c r="H18" s="3">
-        <v>-21200</v>
+        <v>-21300</v>
       </c>
       <c r="I18" s="3">
-        <v>-69200</v>
+        <v>-69300</v>
       </c>
       <c r="J18" s="3">
         <v>200</v>
@@ -1119,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="F20" s="3">
         <v>-2300</v>
@@ -1128,10 +1128,10 @@
         <v>-5700</v>
       </c>
       <c r="H20" s="3">
-        <v>46800</v>
+        <v>46900</v>
       </c>
       <c r="I20" s="3">
-        <v>-16400</v>
+        <v>-16500</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
@@ -1157,19 +1157,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-130300</v>
+        <v>-130400</v>
       </c>
       <c r="F21" s="3">
-        <v>-321200</v>
+        <v>-321500</v>
       </c>
       <c r="G21" s="3">
-        <v>-111900</v>
+        <v>-112000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>-83100</v>
+        <v>-83200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1230,22 +1230,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-140100</v>
+        <v>-140200</v>
       </c>
       <c r="E23" s="3">
-        <v>-134600</v>
+        <v>-134700</v>
       </c>
       <c r="F23" s="3">
-        <v>-325300</v>
+        <v>-325600</v>
       </c>
       <c r="G23" s="3">
-        <v>-119600</v>
+        <v>-119700</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-157100</v>
+        <v>-157300</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-140200</v>
+        <v>-140400</v>
       </c>
       <c r="E26" s="3">
-        <v>-134100</v>
+        <v>-134200</v>
       </c>
       <c r="F26" s="3">
-        <v>-325800</v>
+        <v>-326100</v>
       </c>
       <c r="G26" s="3">
-        <v>-120200</v>
+        <v>-120300</v>
       </c>
       <c r="H26" s="3">
         <v>25600</v>
       </c>
       <c r="I26" s="3">
-        <v>-195000</v>
+        <v>-195200</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1382,22 +1382,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-140200</v>
+        <v>-140400</v>
       </c>
       <c r="E27" s="3">
-        <v>-134100</v>
+        <v>-134200</v>
       </c>
       <c r="F27" s="3">
-        <v>-325800</v>
+        <v>-326100</v>
       </c>
       <c r="G27" s="3">
-        <v>-120200</v>
+        <v>-120300</v>
       </c>
       <c r="H27" s="3">
         <v>25600</v>
       </c>
       <c r="I27" s="3">
-        <v>-195000</v>
+        <v>-195200</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1575,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-18500</v>
+        <v>-18600</v>
       </c>
       <c r="F32" s="3">
         <v>2300</v>
@@ -1584,10 +1584,10 @@
         <v>5700</v>
       </c>
       <c r="H32" s="3">
-        <v>-46800</v>
+        <v>-46900</v>
       </c>
       <c r="I32" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -1610,22 +1610,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-140200</v>
+        <v>-140400</v>
       </c>
       <c r="E33" s="3">
-        <v>-134100</v>
+        <v>-134200</v>
       </c>
       <c r="F33" s="3">
-        <v>-325800</v>
+        <v>-326100</v>
       </c>
       <c r="G33" s="3">
-        <v>-120200</v>
+        <v>-120300</v>
       </c>
       <c r="H33" s="3">
         <v>25600</v>
       </c>
       <c r="I33" s="3">
-        <v>-195000</v>
+        <v>-195200</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -1686,22 +1686,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-140200</v>
+        <v>-140400</v>
       </c>
       <c r="E35" s="3">
-        <v>-134100</v>
+        <v>-134200</v>
       </c>
       <c r="F35" s="3">
-        <v>-325800</v>
+        <v>-326100</v>
       </c>
       <c r="G35" s="3">
-        <v>-120200</v>
+        <v>-120300</v>
       </c>
       <c r="H35" s="3">
         <v>25600</v>
       </c>
       <c r="I35" s="3">
-        <v>-195000</v>
+        <v>-195200</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -1799,10 +1799,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>111800</v>
+        <v>111900</v>
       </c>
       <c r="E41" s="3">
-        <v>140800</v>
+        <v>140900</v>
       </c>
       <c r="F41" s="3">
         <v>68400</v>
@@ -1811,7 +1811,7 @@
         <v>1100</v>
       </c>
       <c r="H41" s="3">
-        <v>112900</v>
+        <v>113000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1837,10 +1837,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>132700</v>
+        <v>132800</v>
       </c>
       <c r="E42" s="3">
-        <v>238100</v>
+        <v>238300</v>
       </c>
       <c r="F42" s="3">
         <v>3400</v>
@@ -1951,7 +1951,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34600</v>
+        <v>34700</v>
       </c>
       <c r="E45" s="3">
         <v>24900</v>
@@ -1989,19 +1989,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>279200</v>
+        <v>279400</v>
       </c>
       <c r="E46" s="3">
-        <v>403800</v>
+        <v>404100</v>
       </c>
       <c r="F46" s="3">
-        <v>79100</v>
+        <v>79200</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H46" s="3">
-        <v>171900</v>
+        <v>172100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2033,10 +2033,10 @@
         <v>20400</v>
       </c>
       <c r="F47" s="3">
-        <v>457400</v>
+        <v>457800</v>
       </c>
       <c r="G47" s="3">
-        <v>448300</v>
+        <v>448700</v>
       </c>
       <c r="H47" s="3">
         <v>69000</v>
@@ -2071,13 +2071,13 @@
         <v>33200</v>
       </c>
       <c r="F48" s="3">
-        <v>1217600</v>
+        <v>1218600</v>
       </c>
       <c r="G48" s="3">
-        <v>1188100</v>
+        <v>1189100</v>
       </c>
       <c r="H48" s="3">
-        <v>1597700</v>
+        <v>1599000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2109,13 +2109,13 @@
         <v>1500</v>
       </c>
       <c r="F49" s="3">
-        <v>827900</v>
+        <v>828600</v>
       </c>
       <c r="G49" s="3">
-        <v>827300</v>
+        <v>828000</v>
       </c>
       <c r="H49" s="3">
-        <v>804200</v>
+        <v>804900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2293,19 +2293,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>339900</v>
+        <v>340200</v>
       </c>
       <c r="E54" s="3">
-        <v>467700</v>
+        <v>468100</v>
       </c>
       <c r="F54" s="3">
-        <v>132300</v>
+        <v>132400</v>
       </c>
       <c r="G54" s="3">
         <v>10300</v>
       </c>
       <c r="H54" s="3">
-        <v>210800</v>
+        <v>211000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2413,7 +2413,7 @@
         <v>3</v>
       </c>
       <c r="H58" s="3">
-        <v>109300</v>
+        <v>109400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2439,7 +2439,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="E59" s="3">
         <v>41700</v>
@@ -2451,7 +2451,7 @@
         <v>14400</v>
       </c>
       <c r="H59" s="3">
-        <v>431700</v>
+        <v>432100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2477,19 +2477,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>71700</v>
+        <v>71800</v>
       </c>
       <c r="E60" s="3">
-        <v>82100</v>
+        <v>82200</v>
       </c>
       <c r="F60" s="3">
-        <v>44000</v>
+        <v>44100</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H60" s="3">
-        <v>127100</v>
+        <v>127200</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2705,10 +2705,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>87900</v>
+        <v>88000</v>
       </c>
       <c r="E66" s="3">
-        <v>96400</v>
+        <v>96500</v>
       </c>
       <c r="F66" s="3">
         <v>55500</v>
@@ -2717,7 +2717,7 @@
         <v>3</v>
       </c>
       <c r="H66" s="3">
-        <v>137900</v>
+        <v>138000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2911,19 +2911,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-911500</v>
+        <v>-912300</v>
       </c>
       <c r="E72" s="3">
-        <v>-777400</v>
+        <v>-778100</v>
       </c>
       <c r="F72" s="3">
-        <v>-451600</v>
+        <v>-452000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H72" s="3">
-        <v>-331800</v>
+        <v>-332100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -3063,13 +3063,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>252000</v>
+        <v>252300</v>
       </c>
       <c r="E76" s="3">
-        <v>371300</v>
+        <v>371600</v>
       </c>
       <c r="F76" s="3">
-        <v>66500</v>
+        <v>66600</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -3182,22 +3182,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-140200</v>
+        <v>-140400</v>
       </c>
       <c r="E81" s="3">
-        <v>-134100</v>
+        <v>-134200</v>
       </c>
       <c r="F81" s="3">
-        <v>-325800</v>
+        <v>-326100</v>
       </c>
       <c r="G81" s="3">
-        <v>-120200</v>
+        <v>-120300</v>
       </c>
       <c r="H81" s="3">
         <v>25600</v>
       </c>
       <c r="I81" s="3">
-        <v>-195000</v>
+        <v>-195200</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -3464,22 +3464,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-146300</v>
+        <v>-146400</v>
       </c>
       <c r="E89" s="3">
-        <v>-133000</v>
+        <v>-133200</v>
       </c>
       <c r="F89" s="3">
-        <v>-151900</v>
+        <v>-152100</v>
       </c>
       <c r="G89" s="3">
-        <v>-81200</v>
+        <v>-81300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I89" s="3">
-        <v>32800</v>
+        <v>32900</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3635,10 +3635,10 @@
         <v>100700</v>
       </c>
       <c r="E94" s="3">
-        <v>105600</v>
+        <v>105700</v>
       </c>
       <c r="F94" s="3">
-        <v>-258200</v>
+        <v>-258400</v>
       </c>
       <c r="G94" s="3">
         <v>37700</v>
@@ -3647,7 +3647,7 @@
         <v>2200</v>
       </c>
       <c r="I94" s="3">
-        <v>111100</v>
+        <v>111200</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -3838,13 +3838,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>128500</v>
+        <v>128600</v>
       </c>
       <c r="E100" s="3">
         <v>-1600</v>
       </c>
       <c r="F100" s="3">
-        <v>482900</v>
+        <v>483300</v>
       </c>
       <c r="G100" s="3">
         <v>800</v>
@@ -3853,7 +3853,7 @@
         <v>3</v>
       </c>
       <c r="I100" s="3">
-        <v>33000</v>
+        <v>33100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3923,7 +3923,7 @@
         <v>72800</v>
       </c>
       <c r="G102" s="3">
-        <v>-42700</v>
+        <v>-42800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
